--- a/Development note/Functions&Data.xlsx
+++ b/Development note/Functions&Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheNormalThingGit\TheNormalThing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheNormalThingGit\TheNormalThingSourceCodes\Development note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE7908C-3D67-4389-AA5F-C61CB5D5AF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428D1F1E-E9EA-40F2-A5EF-DBBB40C85AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1510">
   <si>
     <t>역할</t>
   </si>
@@ -27287,6 +27287,18 @@
       </rPr>
       <t>붕 &gt; 금붕어 로 바꿔주세용</t>
     </r>
+  </si>
+  <si>
+    <t>10월4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진엔딩 영상 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발자국 흔들다리 삽화 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -32284,10 +32296,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D73936-66CE-4E7A-AFB9-D508901AF300}">
-  <dimension ref="A2:C702"/>
+  <dimension ref="A2:C704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A669" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B677" sqref="B677"/>
+    <sheetView tabSelected="1" topLeftCell="A687" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B705" sqref="B705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36009,74 +36021,87 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B689" s="2" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B690" s="2" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B691" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B692" s="2" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B693" s="2" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B694" s="2" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B695" s="2" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B696" s="2" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B697" s="2" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B698" s="2" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B699" s="2" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B700" s="23" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B701" s="23" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B702" s="2" t="s">
         <v>1506</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B704" t="s">
+        <v>1509</v>
       </c>
     </row>
   </sheetData>

--- a/Development note/Functions&Data.xlsx
+++ b/Development note/Functions&Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheNormalThingGit\TheNormalThingSourceCodes\Development note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428D1F1E-E9EA-40F2-A5EF-DBBB40C85AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E18FA88-C686-421C-96FB-1FF3EAB95876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
   </bookViews>
   <sheets>
     <sheet name="함수" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1532">
   <si>
     <t>역할</t>
   </si>
@@ -26737,9 +26737,6 @@
     <t>2. 언노운나왔을때 퍼즐모드 진입못하게, 대화창도안나왔으면 좋겠다.</t>
   </si>
   <si>
-    <t>4. 호수맵 발전기 돌리고나면 긴장할만한 이벤트로 언노운이 따라오긴하는데 엄청 느리고 잡혀도 죽지않는 버전으로 가능한가요. 언노운은 다른 이미지를 쓸거같습니다.(호수라서 머리만 내놓은 언노운같은거?)</t>
-  </si>
-  <si>
     <t>7. 거북이 대사 추가될겁니당</t>
   </si>
   <si>
@@ -26854,10 +26851,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더 하얗게 해서 주면 됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -27099,12 +27092,6 @@
     <t>&gt;줍는다 &gt;안줍는다</t>
   </si>
   <si>
-    <t>18. 카메라 멀리가는거 가능…? 그리고 대사 숲의 끝... 바로 이곳이구나. 다신 돌아갈 수 없어"</t>
-  </si>
-  <si>
-    <t>19. 이스터에그를 그 맵에 한 세번 들어와야 생기는거? 위치도 달라질것같아요 ㅎ</t>
-  </si>
-  <si>
     <t>10월2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -27298,6 +27285,363 @@
   </si>
   <si>
     <t>발자국 흔들다리 삽화 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카메라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>멀리가는거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숲의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이곳이구나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돌아갈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0start\n</t>
+  </si>
+  <si>
+    <t>1cabin\n</t>
+  </si>
+  <si>
+    <t>2catwood\n</t>
+  </si>
+  <si>
+    <t>3catwood2\n</t>
+  </si>
+  <si>
+    <t>4ch2\n</t>
+  </si>
+  <si>
+    <t>5ch3\n</t>
+  </si>
+  <si>
+    <t>6cornerwood\n</t>
+  </si>
+  <si>
+    <t>7camp\n</t>
+  </si>
+  <si>
+    <t>8middlewood\n</t>
+  </si>
+  <si>
+    <t>9village\n</t>
+  </si>
+  <si>
+    <t>10lake\n</t>
+  </si>
+  <si>
+    <t>11lakein\n</t>
+  </si>
+  <si>
+    <t>12lakeout\n</t>
+  </si>
+  <si>
+    <t>13rainingforest\n</t>
+  </si>
+  <si>
+    <t>14parrothidden\n</t>
+  </si>
+  <si>
+    <t>15thunderingforest\n</t>
+  </si>
+  <si>
+    <t>16maze\n</t>
+  </si>
+  <si>
+    <t>17mazeout\n</t>
+  </si>
+  <si>
+    <t>18end\n</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이스터에그를 그 맵에 한 세번 들어와야 생기는거? 위치도 달라질것같아요 ㅎ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용만 있으면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스 나오면 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호수맵 언노운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -27308,7 +27652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27602,6 +27946,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -27722,7 +28073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -27853,9 +28204,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="7" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29061,7 +29409,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>1275</v>
@@ -29087,7 +29435,7 @@
         <v>20</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>1275</v>
@@ -30879,8 +31227,8 @@
   </sheetPr>
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32159,10 +32507,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D70" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="H70" t="s">
         <v>1296</v>
@@ -32173,10 +32521,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D71" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -32187,7 +32535,7 @@
         <v>615</v>
       </c>
       <c r="D72" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -32195,10 +32543,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D73" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -32209,7 +32557,7 @@
         <v>890</v>
       </c>
       <c r="D74" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -32217,7 +32565,7 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="D75" t="s">
         <v>340</v>
@@ -32298,8 +32646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D73936-66CE-4E7A-AFB9-D508901AF300}">
   <dimension ref="A2:C704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A687" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B705" sqref="B705"/>
+    <sheetView topLeftCell="A669" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B700" sqref="B700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35582,12 +35930,12 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B609" s="42" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1384</v>
       </c>
@@ -35595,17 +35943,17 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B611" s="3" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B612" s="3" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1389</v>
       </c>
@@ -35613,495 +35961,522 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B614" s="40" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B615" s="40" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B616" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B617" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B618" s="27" t="s">
         <v>1423</v>
       </c>
-      <c r="B618" s="27" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B619" s="2" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B620" s="2" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B621" s="29" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B622" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B622" s="2" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B623" s="44" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B623" s="41" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B624" s="29" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="625" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B625" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="626" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B626" s="3" t="s">
-        <v>1408</v>
+      <c r="B626" s="18" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="627" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B627" s="43" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="628" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B628" s="2" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="629" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B629" s="18" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="629" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B629" s="3" t="s">
-        <v>1410</v>
+      <c r="C629" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="630" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B630" s="2" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="631" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B631" s="2" t="s">
         <v>1411</v>
-      </c>
-    </row>
-    <row r="631" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B631" s="3" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="632" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B632" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="633" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B633" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="634" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B634" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="635" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B635" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="636" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B636" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="637" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B637" s="2" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="638" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B638" s="18" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="638" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B638" s="3" t="s">
+      <c r="C638" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="639" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B639" s="2" t="s">
         <v>1419</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="639" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B639" s="3" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="640" spans="2:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B640" s="29" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B641" s="29" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B642" s="2" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B643" s="2" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B643" s="2" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B644" s="3" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1465</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B645" s="2" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B646" s="29" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B648" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B649" s="2" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B650" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B651" s="2" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B652" s="2" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B653" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B654" s="2" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B655" s="2" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B656" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="657" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B657" s="2" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="658" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B658" s="2" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="659" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B659" s="2" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="660" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B660" s="2" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="661" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B661" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="662" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B662" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="663" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B663" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="664" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B664" s="2" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="665" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B665" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="666" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B666" s="2" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="667" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B667" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="668" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B668" s="2" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="669" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B669" s="2" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B646" s="29" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A647" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B647" s="3" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B648" s="2" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B649" s="2" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B650" s="2" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B651" s="2" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B652" s="2" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B653" s="2" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B654" s="2" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B655" s="2" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B656" s="3" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B657" s="2" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B658" s="2" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B659" s="2" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B660" s="2" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B661" s="3" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B662" s="2" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B663" s="2" t="s">
+    <row r="670" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B670" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="671" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B671" s="2" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B664" s="2" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B665" s="2" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B666" s="2" t="s">
+    <row r="672" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B672" s="2" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B673" s="2" t="s">
         <v>1454</v>
-      </c>
-    </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B667" s="3" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B668" s="3" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B669" s="3" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B670" s="3" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B671" s="3" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B672" s="3" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B673" s="3" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B674" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B675" s="2" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B676" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B677" s="18" t="s">
-        <v>1476</v>
+        <v>1488</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1474</v>
       </c>
       <c r="C677" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B678" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B679" s="18" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C679" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B680" s="18" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C680" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B681" s="18" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C681" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B682" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B683" s="18" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C683" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B684" s="18" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C684" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B685" s="18" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C685" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B686" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B687" s="23" t="s">
-        <v>1486</v>
+      <c r="B687" s="18" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B688" s="2" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B689" s="2" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B690" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B691" s="2" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B692" s="2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B693" s="2" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B694" s="2" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B689" s="2" t="s">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B695" s="2" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B690" s="2" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B691" s="2" t="s">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B696" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B692" s="2" t="s">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B697" s="2" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B693" s="2" t="s">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B698" s="2" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B694" s="2" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B695" s="2" t="s">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B699" s="2" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B696" s="2" t="s">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B700" s="23" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B701" s="18" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B702" s="2" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B697" s="2" t="s">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B698" s="2" t="s">
+      <c r="B703" s="2" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B699" s="2" t="s">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B704" s="2" t="s">
         <v>1505</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B700" s="23" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B701" s="23" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B702" s="2" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A703" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B703" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B704" t="s">
-        <v>1509</v>
       </c>
     </row>
   </sheetData>
@@ -37137,27 +37512,27 @@
     </row>
     <row r="65" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C65" s="29" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C66" s="29" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="29" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="29" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="29" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -37283,10 +37658,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E026753-891A-420C-B456-ED769A041EE3}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A22" sqref="A22:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37399,6 +37774,101 @@
         <v>116</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1525</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Development note/Functions&Data.xlsx
+++ b/Development note/Functions&Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheNormalThingGit\TheNormalThingSourceCodes\Development note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E18FA88-C686-421C-96FB-1FF3EAB95876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0965194-D0A6-4E25-83A5-AB55F5EEA7B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
+    <workbookView xWindow="3510" yWindow="3525" windowWidth="18900" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
   </bookViews>
   <sheets>
     <sheet name="함수" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="1535">
   <si>
     <t>역할</t>
   </si>
@@ -27642,6 +27642,18 @@
   </si>
   <si>
     <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월6일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 조정하기(엔딩맵, 촌락)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언노운 주변 안개처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31227,7 +31239,7 @@
   </sheetPr>
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -32644,10 +32656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D73936-66CE-4E7A-AFB9-D508901AF300}">
-  <dimension ref="A2:C704"/>
+  <dimension ref="A2:C706"/>
   <sheetViews>
-    <sheetView topLeftCell="A669" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B700" sqref="B700"/>
+    <sheetView tabSelected="1" topLeftCell="A687" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B706" sqref="B706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36477,6 +36489,19 @@
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B704" s="2" t="s">
         <v>1505</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B706" s="2" t="s">
+        <v>1534</v>
       </c>
     </row>
   </sheetData>

--- a/Development note/Functions&Data.xlsx
+++ b/Development note/Functions&Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheNormalThingGit\TheNormalThingSourceCodes\Development note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0965194-D0A6-4E25-83A5-AB55F5EEA7B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B87A08-399C-4E81-A952-876EAFD5B712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3525" windowWidth="18900" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
   </bookViews>
   <sheets>
     <sheet name="함수" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="1535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1550">
   <si>
     <t>역할</t>
   </si>
@@ -26174,23 +26174,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업적2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업적4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업적7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적6&gt; 언노운스크립트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적0,1,5,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -27288,269 +27276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">18. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카메라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>멀리가는거</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그리고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숲의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>끝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">... </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이곳이구나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>돌아갈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>없어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0start\n</t>
   </si>
   <si>
@@ -27654,6 +27379,95 @@
   </si>
   <si>
     <t>언노운 주변 안개처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼즐1 힌트 안눌리게(대화시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구를 이용해야지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발 빠른 강아지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨라도 너무 빨라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 그만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕, 안녕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼼꼼한 편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의 끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적5&gt; 언노운스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 1, 2, 6, 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀업적 등록 다함(스팀 등록 해야 되는듯)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카메라 멀리가는거 가능…? 그리고 대사 숲의 끝... 바로 이곳이구나. 다신 돌아갈 수 없어"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어 횟수, 플레이 횟수 적용완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종이 획득 효과 추가(맵처럼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고슴도치 연출 효과 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -27664,7 +27478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27957,13 +27771,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -29317,7 +29124,7 @@
         <v>1275</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -29343,7 +29150,7 @@
         <v>1275</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -29360,7 +29167,7 @@
         <v>6.375</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>976</v>
@@ -29369,7 +29176,7 @@
         <v>1275</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -29421,13 +29228,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>1275</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -29447,13 +29254,13 @@
         <v>20</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>1275</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -29479,7 +29286,7 @@
         <v>1275</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
   </sheetData>
@@ -29493,7 +29300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF5B67-298D-4E99-BD17-CE9D039E1A2F}">
   <dimension ref="A1:X151"/>
   <sheetViews>
-    <sheetView topLeftCell="Q16" workbookViewId="0">
+    <sheetView topLeftCell="Q22" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -31237,10 +31044,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32088,7 +31895,7 @@
         <v>733</v>
       </c>
       <c r="H45" t="s">
-        <v>1295</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -32420,7 +32227,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>72</v>
       </c>
@@ -32440,7 +32247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>73</v>
       </c>
@@ -32463,7 +32270,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>74</v>
       </c>
@@ -32479,11 +32286,11 @@
       <c r="F67">
         <v>32</v>
       </c>
-      <c r="H67" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>75</v>
       </c>
@@ -32497,7 +32304,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>76</v>
       </c>
@@ -32514,32 +32321,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D70" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="H70" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="D71" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>79</v>
       </c>
@@ -32547,21 +32354,21 @@
         <v>615</v>
       </c>
       <c r="D72" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D73" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>81</v>
       </c>
@@ -32569,15 +32376,15 @@
         <v>890</v>
       </c>
       <c r="D74" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D75" t="s">
         <v>340</v>
@@ -32656,9 +32463,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D73936-66CE-4E7A-AFB9-D508901AF300}">
-  <dimension ref="A2:C706"/>
+  <dimension ref="A2:C711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A687" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A684" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B706" sqref="B706"/>
     </sheetView>
   </sheetViews>
@@ -35730,778 +35537,806 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B568" s="2" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B569" s="36" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B570" s="2" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B571" s="2" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B572" s="2" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B573" s="2" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B574" s="2" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B575" s="2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B576" s="2" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B577" s="2" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B578" s="2" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B579" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B580" s="2" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B581" s="2" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B582" s="2" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B583" s="27" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B584" s="18" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C584" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B585" s="40" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C585" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B586" s="38" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B587" s="38" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B588" s="38" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B589" s="38" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B590" s="38" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B591" s="38" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B592" s="38" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B593" s="38" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B594" s="38" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B595" s="38" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B596" s="38" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="597" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B597" s="38" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B598" s="38" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="599" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B599" s="38" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="600" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B600" s="38" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="601" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B601" s="38" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="602" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B602" s="38" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B603" s="38" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B604" s="38" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="605" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B605" s="38" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B606" s="38" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B607" s="38" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B608" s="2" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B609" s="42" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B611" s="3" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B612" s="3" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B613" s="27" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B614" s="40" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B615" s="40" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B616" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B617" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B618" s="27" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B619" s="2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B620" s="2" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B621" s="29" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B622" s="2" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B623" s="41" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="C623" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B624" s="29" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="625" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B625" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="626" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B626" s="18" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="C626" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="627" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B627" s="43" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="628" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B628" s="2" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="629" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B629" s="18" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C629" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="630" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B630" s="2" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="631" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B631" s="2" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="632" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B632" s="2" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="633" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B633" s="3" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C633" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="634" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B634" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="635" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B635" s="2" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="636" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B636" s="2" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="637" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B637" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="638" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B638" s="18" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C638" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="639" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B639" s="2" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="640" spans="2:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B640" s="29" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B641" s="29" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B642" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B643" s="2" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B644" s="3" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="C644" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B645" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B646" s="29" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B648" s="2" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B649" s="2" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B650" s="2" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B651" s="2" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B652" s="2" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B653" s="2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B654" s="2" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B655" s="2" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B656" s="3" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C656" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="657" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B657" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="658" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B658" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="659" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B659" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="660" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B660" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="661" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B661" s="3" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="C661" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="662" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B662" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="663" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B663" s="2" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="664" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B664" s="2" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="665" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B665" s="2" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="666" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B666" s="2" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="667" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B667" s="2" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="668" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B668" s="2" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="669" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B669" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="670" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B670" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="671" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B671" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="672" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B672" s="2" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B673" s="2" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B674" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B675" s="2" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B676" s="2" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="C677" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B678" s="2" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B679" s="18" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C679" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B680" s="18" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="C680" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B681" s="18" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C681" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B682" s="2" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B683" s="18" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C683" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B684" s="18" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="C684" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B685" s="18" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C685" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B686" s="2" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B687" s="18" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="C687" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B688" s="2" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B689" s="2" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B690" s="2" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B691" s="2" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B692" s="2" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B693" s="2" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B694" s="2" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B695" s="2" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B696" s="2" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B697" s="2" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B698" s="2" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B699" s="2" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B700" s="23" t="s">
-        <v>1506</v>
+      <c r="B700" s="2" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B701" s="18" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="C701" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B702" s="2" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B704" s="2" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B706" s="2" t="s">
-        <v>1534</v>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B708" s="2" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B709" s="2" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B710" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B711" s="2" t="s">
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
@@ -36515,7 +36350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BECE5F-E7BD-4C94-9682-CFC0CF02D88C}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -36990,7 +36825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7966E2-2F1B-408A-9E22-FC74995E7F0C}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -37060,27 +36895,27 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -37097,7 +36932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCF3DC6-3835-4CBF-9C23-2114316E5D7A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -37116,7 +36951,7 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -37202,18 +37037,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B21" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C21" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
   </sheetData>
@@ -37373,47 +37208,47 @@
         <v>0.93</v>
       </c>
       <c r="C31" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D40" s="18" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D41" s="40" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -37424,62 +37259,62 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="C43" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -37490,12 +37325,12 @@
         <v>0.93200000000000005</v>
       </c>
       <c r="C56" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -37506,22 +37341,22 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="C59" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -37532,32 +37367,32 @@
         <v>0.94</v>
       </c>
       <c r="C64" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C65" s="29" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C66" s="29" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="29" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="29" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="29" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -37578,10 +37413,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE25DBF-FFA7-4F2D-A582-4F7322749005}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37593,18 +37428,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C2" t="s">
         <v>1065</v>
@@ -37612,67 +37447,136 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C3" t="s">
         <v>1066</v>
       </c>
       <c r="D3" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C4" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B9" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C9" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C10" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C11" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B14" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C14" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C21" t="s">
         <v>1262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1540</v>
       </c>
     </row>
   </sheetData>
@@ -37685,7 +37589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E026753-891A-420C-B456-ED769A041EE3}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:A41"/>
     </sheetView>
   </sheetViews>
@@ -37801,97 +37705,97 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>

--- a/Development note/Functions&Data.xlsx
+++ b/Development note/Functions&Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheNormalThingGit\TheNormalThingSourceCodes\Development note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B87A08-399C-4E81-A952-876EAFD5B712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CAA7F5-4127-4225-B716-56BBC9D4E6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="6" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
   </bookViews>
   <sheets>
     <sheet name="함수" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1554">
   <si>
     <t>역할</t>
   </si>
@@ -27374,14 +27374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카메라 조정하기(엔딩맵, 촌락)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언노운 주변 안개처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퍼즐1 힌트 안눌리게(대화시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -27463,11 +27455,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종이 획득 효과 추가(맵처럼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고슴도치 연출 효과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언노운 출현시 카메라 효과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 효과 추가(엔딩맵, 촌락)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종이 획득 시 효과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고슴도치 쪽지 대사 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 업데이드 효과 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -27892,7 +27908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -28023,6 +28039,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31895,7 +31914,7 @@
         <v>733</v>
       </c>
       <c r="H45" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -32287,7 +32306,7 @@
         <v>32</v>
       </c>
       <c r="J67" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -32332,7 +32351,7 @@
         <v>1453</v>
       </c>
       <c r="H70" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -32463,10 +32482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D73936-66CE-4E7A-AFB9-D508901AF300}">
-  <dimension ref="A2:C711"/>
+  <dimension ref="A2:C712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A684" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B706" sqref="B706"/>
+    <sheetView topLeftCell="A673" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B710" activeCellId="2" sqref="B706 B705 B710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36269,7 +36288,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B700" s="2" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
@@ -36293,50 +36312,58 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B704" s="2" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>1528</v>
       </c>
-      <c r="B705" s="2" t="s">
+      <c r="B705" s="29" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B706" s="29" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B707" s="2" t="s">
         <v>1529</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B706" s="2" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A707" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B707" s="2" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B708" s="2" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B709" s="2" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B710" s="2" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B710" s="29" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B711" s="2" t="s">
-        <v>1549</v>
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B712" s="36" t="s">
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -37060,10 +37087,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D513213-F6A2-4A08-9D13-5BDFFBC1CFDC}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37402,6 +37429,50 @@
       </c>
       <c r="B72">
         <v>0.94099999999999995</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="30">
+        <v>44111</v>
+      </c>
+      <c r="B75">
+        <v>0.95</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="29" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C77" s="29" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="29" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="44" t="s">
+        <v>1552</v>
       </c>
     </row>
   </sheetData>
@@ -37512,7 +37583,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -37520,7 +37591,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -37528,7 +37599,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -37536,7 +37607,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -37544,7 +37615,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -37552,7 +37623,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -37560,7 +37631,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -37568,7 +37639,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -37576,7 +37647,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
   </sheetData>

--- a/Development note/Functions&Data.xlsx
+++ b/Development note/Functions&Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheNormalThingGit\TheNormalThingSourceCodes\Development note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CAA7F5-4127-4225-B716-56BBC9D4E6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60EAE60-905B-4B23-B862-3DC8BAC85207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="6" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18900" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
   </bookViews>
   <sheets>
     <sheet name="함수" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1558">
   <si>
     <t>역할</t>
   </si>
@@ -27471,10 +27471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고슴도치 쪽지 대사 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -27484,6 +27480,26 @@
   </si>
   <si>
     <t>맵 업데이드 효과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어번역시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 번역하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내장자막스프라이트 모으기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼즐 상호작용 가져다 댈때 마우스 손바닥으로 바꾸기 효과추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월12일~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31065,7 +31081,7 @@
   </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -32482,10 +32498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D73936-66CE-4E7A-AFB9-D508901AF300}">
-  <dimension ref="A2:C712"/>
+  <dimension ref="A2:C716"/>
   <sheetViews>
-    <sheetView topLeftCell="A673" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B710" activeCellId="2" sqref="B706 B705 B710"/>
+    <sheetView tabSelected="1" topLeftCell="A700" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B715" sqref="B715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36360,10 +36376,30 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B712" s="36" t="s">
         <v>1550</v>
       </c>
-      <c r="B712" s="36" t="s">
-        <v>1551</v>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B713" s="38" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B714" s="38" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B715" s="38" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B716" s="38" t="s">
+        <v>1556</v>
       </c>
     </row>
   </sheetData>
@@ -37089,7 +37125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D513213-F6A2-4A08-9D13-5BDFFBC1CFDC}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -37436,7 +37472,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -37472,7 +37508,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C80" s="44" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
   </sheetData>

--- a/Development note/Functions&Data.xlsx
+++ b/Development note/Functions&Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheNormalThingGit\TheNormalThingSourceCodes\Development note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60EAE60-905B-4B23-B862-3DC8BAC85207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83DEB8-5EB5-4647-92D0-8A40B061A4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="18900" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="1559">
   <si>
     <t>역할</t>
   </si>
@@ -27495,11 +27495,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퍼즐 상호작용 가져다 댈때 마우스 손바닥으로 바꾸기 효과추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10월12일~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 및 아이템 사용시 커서 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어자막 : 호수, 퍼즐0 점검 끝. 처음~촌락까지 구글번역 복붙함 99%점검 안함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32498,10 +32502,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D73936-66CE-4E7A-AFB9-D508901AF300}">
-  <dimension ref="A2:C716"/>
+  <dimension ref="A2:C717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A700" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B715" sqref="B715"/>
+    <sheetView tabSelected="1" topLeftCell="A711" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B717" sqref="B717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36185,7 +36189,7 @@
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B680" s="18" t="s">
+      <c r="B680" s="2" t="s">
         <v>1474</v>
       </c>
       <c r="C680" t="s">
@@ -36193,7 +36197,7 @@
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B681" s="18" t="s">
+      <c r="B681" s="2" t="s">
         <v>1475</v>
       </c>
       <c r="C681" t="s">
@@ -36376,7 +36380,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B712" s="36" t="s">
         <v>1550</v>
@@ -36399,7 +36403,12 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B716" s="38" t="s">
-        <v>1556</v>
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B717" s="38" t="s">
+        <v>1558</v>
       </c>
     </row>
   </sheetData>

--- a/Development note/Functions&Data.xlsx
+++ b/Development note/Functions&Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheNormalThingGit\TheNormalThingSourceCodes\Development note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83DEB8-5EB5-4647-92D0-8A40B061A4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8F600F-9584-4048-9455-82FBD69421B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18900" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{403ACD53-A4AC-45B4-8213-162B3DE767C6}"/>
   </bookViews>
   <sheets>
     <sheet name="함수" sheetId="1" r:id="rId1"/>
@@ -27503,7 +27503,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영어자막 : 호수, 퍼즐0 점검 끝. 처음~촌락까지 구글번역 복붙함 99%점검 안함.</t>
+    <t>영어자막 : 호수, 퍼즐0 점검함. 처음~촌락까지 구글번역 복붙함 99%점검 안함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
